--- a/Шаблоны/position_bonus.xlsx
+++ b/Шаблоны/position_bonus.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\СерафимПилипчук\Desktop\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\АнтонВильсон\Desktop\Work\InThemJira\UI5\Inthem\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA806D3-CF57-4ECC-A057-D62B6CCECEF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C29A5-9D63-41F0-93ED-A5A02E8797AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC059209-ECB8-427F-A304-991532345527}"/>
   </bookViews>
   <sheets>
     <sheet name="Премии по должностям" sheetId="1" r:id="rId1"/>
     <sheet name="Должности" sheetId="2" r:id="rId2"/>
-    <sheet name="Премиязадень" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Ключ</t>
   </si>
@@ -44,18 +43,6 @@
     <t>Наименование</t>
   </si>
   <si>
-    <t>5F030F07591BBC001B497B6B</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Садовник</t>
-  </si>
-  <si>
-    <t>екн</t>
-  </si>
-  <si>
     <t>Должность</t>
   </si>
   <si>
@@ -65,32 +52,161 @@
     <t>Премия за день</t>
   </si>
   <si>
-    <t>Премия за день ID</t>
-  </si>
-  <si>
-    <t>премия1</t>
-  </si>
-  <si>
-    <t>премия2</t>
-  </si>
-  <si>
-    <t>премия3</t>
-  </si>
-  <si>
-    <t>премия4</t>
-  </si>
-  <si>
-    <t>премия5</t>
+    <t>Период: С</t>
+  </si>
+  <si>
+    <t>Период: По</t>
+  </si>
+  <si>
+    <t>0000000000000000000</t>
+  </si>
+  <si>
+    <t>8267803578138969233</t>
+  </si>
+  <si>
+    <t>6228209980103737691</t>
+  </si>
+  <si>
+    <t>3528514839244918242</t>
+  </si>
+  <si>
+    <t>138506210923464808</t>
+  </si>
+  <si>
+    <t>3019009437465791026</t>
+  </si>
+  <si>
+    <t>232082407950075194</t>
+  </si>
+  <si>
+    <t>4539351627309730282</t>
+  </si>
+  <si>
+    <t>760474406833441057</t>
+  </si>
+  <si>
+    <t>964021310157572725</t>
+  </si>
+  <si>
+    <t>5439747125332168693</t>
+  </si>
+  <si>
+    <t>8380737848045685617</t>
+  </si>
+  <si>
+    <t>1203158023849787823</t>
+  </si>
+  <si>
+    <t>7079509283661761297</t>
+  </si>
+  <si>
+    <t>132004129837435667</t>
+  </si>
+  <si>
+    <t>4738932126688956006</t>
+  </si>
+  <si>
+    <t>5591056472699587050</t>
+  </si>
+  <si>
+    <t>6282452670265183627</t>
+  </si>
+  <si>
+    <t>6486613692234809788</t>
+  </si>
+  <si>
+    <t>8610346778526564396</t>
+  </si>
+  <si>
+    <t>5579769468551515989</t>
+  </si>
+  <si>
+    <t>6791707149787480605</t>
+  </si>
+  <si>
+    <t>8119705032577665983</t>
+  </si>
+  <si>
+    <t>4654862100934575815</t>
+  </si>
+  <si>
+    <t>ВСЕ ДОЛЖНОСТИ</t>
+  </si>
+  <si>
+    <t>Администратор проектов</t>
+  </si>
+  <si>
+    <t>Генеральный директор</t>
+  </si>
+  <si>
+    <t>Консультант поддержки К3</t>
+  </si>
+  <si>
+    <t>Консультант САП К0</t>
+  </si>
+  <si>
+    <t>Консультант САП К1.1</t>
+  </si>
+  <si>
+    <t>Консультант САП К1.2</t>
+  </si>
+  <si>
+    <t>Консультант САП К1.3</t>
+  </si>
+  <si>
+    <t>Консультант САП К2.1</t>
+  </si>
+  <si>
+    <t>Консультант САП К2.2</t>
+  </si>
+  <si>
+    <t>Помощник генерального директора</t>
+  </si>
+  <si>
+    <t>Разработчик К0</t>
+  </si>
+  <si>
+    <t>Разработчик К1.0</t>
+  </si>
+  <si>
+    <t>Разработчик К1.1</t>
+  </si>
+  <si>
+    <t>Разработчик К1.2</t>
+  </si>
+  <si>
+    <t>Разработчик К1.3</t>
+  </si>
+  <si>
+    <t>Руководитель отдела административного сопровождения</t>
+  </si>
+  <si>
+    <t>Руководитель проектов</t>
+  </si>
+  <si>
+    <t>Руководитель регионального направления</t>
+  </si>
+  <si>
+    <t>Специалист отдела административного сопровождения</t>
+  </si>
+  <si>
+    <t>Специалист по поддержке пользователей</t>
+  </si>
+  <si>
+    <t>Стажер САП</t>
+  </si>
+  <si>
+    <t>Старший консультант поддержки К4.0</t>
+  </si>
+  <si>
+    <t>Старший консультант поддержки К4.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +219,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -157,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,11 +277,18 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,61 +604,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492D6E77-25C4-49F3-AFCE-8FF698FCE16A}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="32" style="6" customWidth="1"/>
+    <col min="5" max="5" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX(Должности!$A$2:$B$300,MATCH($A2,Должности!$B$2:$B$300,0),1)</f>
-        <v>5F030F07591BBC001B497B6B</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <f>INDEX(Премиязадень!$A$2:$D$300,MATCH($C2,Премиязадень!$B$2:$B$300,0),1)</f>
-        <v>125</v>
+        <v>8380737848045685617</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43831</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44561</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="str">
+        <f>INDEX(Должности!$A$2:$B$300,MATCH($A3,Должности!$B$2:$B$300,0),1)</f>
+        <v>1203158023849787823</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43831</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44561</v>
+      </c>
+      <c r="E3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="str">
+        <f>INDEX(Должности!$A$2:$B$300,MATCH($A4,Должности!$B$2:$B$300,0),1)</f>
+        <v>7079509283661761297</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43831</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44561</v>
+      </c>
+      <c r="E4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="str">
+        <f>INDEX(Должности!$A$2:$B$300,MATCH($A5,Должности!$B$2:$B$300,0),1)</f>
+        <v>132004129837435667</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43831</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44561</v>
+      </c>
+      <c r="E5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="str">
+        <f>INDEX(Должности!$A$2:$B$300,MATCH($A6,Должности!$B$2:$B$300,0),1)</f>
+        <v>4738932126688956006</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43831</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44561</v>
+      </c>
+      <c r="E6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="str">
+        <f>INDEX(Должности!$A$2:$B$300,MATCH($A7,Должности!$B$2:$B$300,0),1)</f>
+        <v>138506210923464808</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43831</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44561</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="str">
+        <f>INDEX(Должности!$A$2:$B$300,MATCH($A8,Должности!$B$2:$B$300,0),1)</f>
+        <v>3019009437465791026</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43831</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44561</v>
+      </c>
+      <c r="E8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="str">
+        <f>INDEX(Должности!$A$2:$B$300,MATCH($A9,Должности!$B$2:$B$300,0),1)</f>
+        <v>232082407950075194</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43831</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44561</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="str">
+        <f>INDEX(Должности!$A$2:$B$300,MATCH($A10,Должности!$B$2:$B$300,0),1)</f>
+        <v>4539351627309730282</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43831</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44561</v>
+      </c>
+      <c r="E10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="str">
+        <f>INDEX(Должности!$A$2:$B$300,MATCH($A11,Должности!$B$2:$B$300,0),1)</f>
+        <v>760474406833441057</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43831</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44561</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="str">
+        <f>INDEX(Должности!$A$2:$B$300,MATCH($A12,Должности!$B$2:$B$300,0),1)</f>
+        <v>964021310157572725</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43831</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44561</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74452D88-15BF-4A2C-8E73-20389C2DA8AE}">
-          <x14:formula1>
-            <xm:f>Премиязадень!$B$2:$B$130</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{986507AF-3A1D-4D16-843D-3CC051111C25}">
           <x14:formula1>
             <xm:f>Должности!$B$2:$B$401</xm:f>
@@ -557,19 +854,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A50B49F-F482-41E5-B0C1-4853B4E200CF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -577,91 +874,199 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C586C359-DA53-40D7-8C12-6FE1F272E130}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>124</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>127</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>